--- a/modules/ground/map_N.xlsx
+++ b/modules/ground/map_N.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programs\RATORI\modules\ground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C04578F-C65A-4795-AC83-A877F5B6CDE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696628FE-0830-490B-8220-C847A0CB0511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2109C23C-1D14-4183-9F9E-606494D95FB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2109C23C-1D14-4183-9F9E-606494D95FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="145">
   <si>
     <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
   </si>
@@ -329,45 +329,6 @@
     <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '1001', '1002', '1003', '1006', '1007', '1008', '1000', '1007', '1003', '1004', '1006', '1004', '1003', '1002', '1000', '1007', '1003', '1005', '1002', '1003', '1006', '1007', '1008', '1001', '1002', '1000', '1007', '1003', '1004', '1001', '1006', '1007', '1000', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
   </si>
   <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
-    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</t>
-  </si>
-  <si>
     <t>'1411', '0002', '1400', '1403', '1409', '1413', '0002', '1411', '1413', '1413', '1406', '0002', '1406', '1401', '1412', '1406', '0002', '1404', '1407', '1407', '1405', '1406', '1407', '1406', '1403', '1410', '1405', '1405', '1400', '1400', '1003', '0313', '1409', '1405', '1412', '1414', '1414', '0002', '1503', '1404', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1310', '1308', '1300', '1300', '1300', '1300', '0900', '0900', '1300', '1300', '1300', '0900', '0900', '1300'</t>
   </si>
   <si>
@@ -465,6 +426,42 @@
   </si>
   <si>
     <t>0015', '0012', '1400', '1408', '1410', '1408', '0002', '1409', '1407', '1412', '1409', '0002', '1407', '1412', '1408', '1509', '0002', '1408', '1410', '1408', '1414', '0002', '1510', '1500', '1414', '1404', '1412', '1414', '1406', '1410', '1414', '1404', '1405', '1415', '1402', '1405', '1401', '1406', '1400', '1401', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1315', '1303', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '0900', '0900', '1300'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
+  </si>
+  <si>
+    <t>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</t>
   </si>
 </sst>
 </file>
@@ -940,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8B5C19-CDAD-45C5-B780-6660C734E2D3}">
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F2:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,10 +964,10 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="str">
         <f>CONCATENATE("[", C2, ",", D2, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -986,16 +983,16 @@
         <v>67</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="str">
         <f>CONCATENATE("[", C3, ",", D3, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1017,10 +1014,10 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="str">
         <f>CONCATENATE("[", C4, ",", D4, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1036,16 +1033,16 @@
         <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="str">
         <f>CONCATENATE("[", C5, ",", D5, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1067,10 +1064,10 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="str">
         <f>CONCATENATE("[", C6, ",", D6, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1092,10 +1089,10 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="str">
         <f>CONCATENATE("[", C7, ",", D7, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1004', '0200', '0200', '0200', '1004', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1004', '0200', '0200', '0200', '1004', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -1117,10 +1114,10 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="str">
         <f>CONCATENATE("[", C8, ",", D8, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -1136,16 +1133,16 @@
         <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="str">
         <f>CONCATENATE("[", C9, ",", D9, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1004', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1004', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -1161,16 +1158,16 @@
         <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="str">
         <f>CONCATENATE("[", C10, ",", D10, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '1009', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '1009', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1186,16 +1183,16 @@
         <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="str">
         <f>CONCATENATE("[", C11, ",", D11, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '1000', '0200', '0200', '0200', '0200', '1007', '1006', '1002', '1003', '0200', '1007', '1009', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '1000', '0200', '0200', '0200', '0200', '1007', '1006', '1002', '1003', '0200', '1007', '1009', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1211,16 +1208,16 @@
         <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="str">
         <f>CONCATENATE("[", C12, ",", D12, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '1009', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '1009', '1000', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1004', '1015', '0200', '0200', '1012', '0200', '1012', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '1009', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '1009', '1000', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1004', '1015', '0200', '0200', '1012', '0200', '1012', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -1236,16 +1233,16 @@
         <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="str">
         <f>CONCATENATE("[", C13, ",", D13, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '1011', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '1011', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -1261,16 +1258,16 @@
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="str">
         <f>CONCATENATE("[", C14, ",", D14, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '1007', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '1002', '0200', '0200', '1000', '1007', '1003', '1002', '1006', '1004', '1009', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '1007', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '1002', '0200', '0200', '1000', '1007', '1003', '1002', '1006', '1004', '1009', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -1286,16 +1283,16 @@
         <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="str">
         <f>CONCATENATE("[", C15, ",", D15, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'1007', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1004', '1003', '1007', '1006', '0200', '1002', '0200', '0200', '1006', '1004', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','1007', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1004', '1003', '1007', '1006', '0200', '1002', '0200', '0200', '1006', '1004', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -1317,10 +1314,10 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="str">
         <f>CONCATENATE("[", C16, ",", D16, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -1336,16 +1333,16 @@
         <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="str">
         <f>CONCATENATE("[", C17, ",", D17, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1009', '1002', '0200', '0200', '0200', '1009', '1002', '0200', '0200', '0200', '1002', '1004', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1009', '1002', '0200', '0200', '0200', '1009', '1002', '0200', '0200', '0200', '1002', '1004', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
@@ -1361,16 +1358,16 @@
         <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="str">
         <f>CONCATENATE("[", C18, ",", D18, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '1003', '1006', '1003', '1004', '1006', '0200', '1003', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '1003', '1006', '1003', '1004', '1006', '0200', '1003', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1386,16 +1383,16 @@
         <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="str">
         <f>CONCATENATE("[", C19, ",", D19, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '1009', '1003', '1003', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '1009', '1003', '1003', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
@@ -1411,16 +1408,16 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="str">
         <f>CONCATENATE("[", C20, ",", D20, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1007', '1003', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
@@ -1436,16 +1433,16 @@
         <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="str">
         <f>CONCATENATE("[", C21, ",", D21, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '1004', '0200', '0200', '1009', '0200', '1000', '0200', '1000', '0200', '1000', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '1004', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '1004', '0200', '0200', '1009', '0200', '1000', '0200', '1000', '0200', '1000', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '1004', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
@@ -1461,16 +1458,16 @@
         <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="str">
         <f>CONCATENATE("[", C22, ",", D22, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '1004', '0200', '1009', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '1004', '0200', '1009', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -1486,16 +1483,16 @@
         <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str">
         <f>CONCATENATE("[", C23, ",", D23, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '1003', '1000', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1306', '1302', '1302', '1307', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '1003', '1000', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1306', '1302', '1302', '1307', '1300', '1300'],</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -1511,16 +1508,16 @@
         <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str">
         <f>CONCATENATE("[", C24, ",", D24, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'1000', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '1003', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','1000', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1000', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '1003', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -1536,16 +1533,16 @@
         <v>89</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str">
         <f>CONCATENATE("[", C25, ",", D25, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1004', '0200', '1002', '0200', '0200', '1007', '1004', '0200', '0200', '0200', '1006', '0200', '0200', '1000', '1007', '0200', '1003', '1007', '1007', '1009', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1004', '0200', '1002', '0200', '0200', '1007', '1004', '0200', '0200', '0200', '1006', '0200', '0200', '1000', '1007', '0200', '1003', '1007', '1007', '1009', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
@@ -1561,16 +1558,16 @@
         <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str">
         <f>CONCATENATE("[", C26, ",", D26, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -1586,16 +1583,16 @@
         <v>91</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str">
         <f>CONCATENATE("[", C27, ",", D27, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1000', '0200', '1006', '1002', '1006', '1002', '0200', '0200', '1006', '0200', '1009', '0200', '1000', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '1000', '0200', '1006', '1002', '1006', '1002', '0200', '0200', '1006', '0200', '1009', '0200', '1000', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1611,16 +1608,16 @@
         <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str">
         <f>CONCATENATE("[", C28, ",", D28, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'1003', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '1003', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '1002', '1002', '1007', '1009', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '1315', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','1003', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '1003', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '1002', '1002', '1007', '1009', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '1315', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
@@ -1636,16 +1633,16 @@
         <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="str">
         <f>CONCATENATE("[", C29, ",", D29, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '1009', '1002', '0200', '1000', '0200', '1007', '0200', '0200', '0200', '1007', '1007', '1002', '0200', '0200', '1002', '1007', '0200', '0200', '1007', '0200', '0200', '1003', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '1314', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '1009', '1002', '0200', '1000', '0200', '1007', '0200', '0200', '0200', '1007', '1007', '1002', '0200', '0200', '1002', '1007', '0200', '0200', '1007', '0200', '0200', '1003', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '1314', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
@@ -1661,16 +1658,16 @@
         <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="str">
         <f>CONCATENATE("[", C30, ",", D30, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '1006', '0200', '1002', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '1006', '0200', '1002', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1301', '0100', '0100', '1303', '1300', '1300'],</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
@@ -1686,16 +1683,16 @@
         <v>95</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str">
         <f>CONCATENATE("[", C31, ",", D31, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '1003', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1003', '1007', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1006', '1000', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '1002', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1305', '1304', '1304', '1308', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '1003', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '1003', '1007', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '1006', '1000', '1000', '0200', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '1002', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1305', '1304', '1304', '1308', '1300', '1300'],</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
@@ -1711,16 +1708,16 @@
         <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str">
         <f>CONCATENATE("[", C32, ",", D32, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '1000', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '1000', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
@@ -1736,16 +1733,16 @@
         <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="str">
         <f>CONCATENATE("[", C33, ",", D33, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0408', '0200', '0200', '0200', '1009', '0200', '1002', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '1000', '0200', '1006', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0408', '0200', '0200', '0200', '1009', '0200', '1002', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '1000', '0200', '1006', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -1761,16 +1758,16 @@
         <v>98</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="str">
         <f>CONCATENATE("[", C34, ",", D34, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '1002', '1007', '1007', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '1002', '1007', '1007', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -1786,16 +1783,16 @@
         <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="str">
         <f>CONCATENATE("[", C35, ",", D35, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'1006', '0200', '0200', '0200', '1007', '0200', '1007', '0200', '0402', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','1006', '0200', '0200', '0200', '1007', '0200', '1007', '0200', '0402', '0200', '0200', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
@@ -1811,16 +1808,16 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="str">
         <f>CONCATENATE("[", C36, ",", D36, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0410', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0408', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0410', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0408', '0200', '0200', '0200', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
@@ -1836,16 +1833,16 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="str">
         <f>CONCATENATE("[", C37, ",", D37, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '1002', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '1002', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '1002', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '1002', '0200', '0200', '1003', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D37" t="s">
         <v>56</v>
@@ -1861,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">
         <f>CONCATENATE("[", C38, ",", D38, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'1002', '0200', '1009', '1003', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '1007', '0402', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','1002', '0200', '1009', '1003', '0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1006', '0200', '0200', '1007', '0402', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
@@ -1886,16 +1883,16 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="str">
         <f>CONCATENATE("[", C39, ",", D39, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '1006', '1007', '0200', '1006', '0200', '0200', '0200', '1006', '0200', '0200', '0402', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '1006', '1007', '0200', '1006', '0200', '0200', '0200', '1006', '0200', '0200', '0402', '0200', '1006', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1002', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D39" t="s">
         <v>58</v>
@@ -1911,16 +1908,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="str">
         <f>CONCATENATE("[", C40, ",", D40, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0414', '0401', '0401', '0401', '0411', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0200', '1007', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1007', '0200', '0200', '0200', '1009', '0200', '0200', '0200', '0200', '0414', '0401', '0401', '0401', '0411', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
@@ -1942,10 +1939,10 @@
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="str">
         <f>CONCATENATE("[", C41, ",", D41, "],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200,'0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0409', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200','0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0409', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -1974,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9408FC5-32B5-4CB0-A75B-712D8ED26E75}">
   <dimension ref="B1:BQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,12 +2395,12 @@
     </row>
     <row r="4" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B42" si="0">CONCATENATE("'",F4,D4,G4,D4,H4,D4,I4,D4,J4,D4,K4,D4,L4,D4,M4,D4,N4,D4,O4,D4,P4,D4,Q4,D4,R4,D4,S4,D4,T4,D4,U4,D4,V4,D4,W4,D4,X4,D4,Y4,D4,Z4,D4,AA4,D4,AB4,D4,AC4,D4,AD4,D4,AE4,D4,AF4,D4,AG4,D4,AH4,D4,AI4,D4,AJ4,D4,AK4,D4,AL4,D4,AM4,D4,AN4,D4,AO4,D4,AP4,D4,AQ4,D4,AR4,D4,AS4,D4,AT4,D4,AU4,D4,AV4,D4,AW4,D4,AX4,D4,AY4,D4,AZ4,D4,BA4,D4,BB4,D4,BC4,D4,BD4,D4,BE4,D4,BF4,D4,BG4,D4,BH4,D4,BI4,D4,BJ4,D4,BK4,D4,BL4,D4,BM4,D4,BN4,D4,BO4,D4,BP4,D4,BQ4,)</f>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <f t="shared" ref="B4:B42" si="0">CONCATENATE("'",F4,D4,G4,D4,H4,D4,I4,D4,J4,D4,K4,D4,L4,D4,M4,D4,N4,D4,O4,D4,P4,D4,Q4,D4,R4,D4,S4,D4,T4,D4,U4,D4,V4,D4,W4,D4,X4,D4,Y4,D4,Z4,D4,AA4,D4,AB4,D4,AC4,D4,AD4,D4,AE4,D4,AF4,D4,AG4,D4,AH4,D4,AI4,D4,AJ4,D4,AK4,D4,AL4,D4,AM4,D4,AN4,D4,AO4,D4,AP4,D4,AQ4,D4,AR4,D4,AS4,D4,AT4,D4,AU4,D4,AV4,D4,AW4,D4,AX4,D4,AY4,D4,AZ4,D4,BA4,D4,BB4,D4,BC4,D4,BD4,D4,BE4,D4,BF4,D4,BG4,D4,BH4,D4,BI4,D4,BJ4,D4,BK4,D4,BL4,D4,BM4,D4,BN4,D4,BO4,D4,BP4,D4,BQ4,"'")</f>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE("[",B4,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0206', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -2607,11 +2604,11 @@
     <row r="5" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE("[",B5,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -2815,11 +2812,11 @@
     <row r="6" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE("[",B6,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>6</v>
@@ -3023,11 +3020,11 @@
     <row r="7" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE("[",B7,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>6</v>
@@ -3231,11 +3228,11 @@
     <row r="8" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE("[",B8,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>6</v>
@@ -3439,11 +3436,11 @@
     <row r="9" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE("[",B9,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>6</v>
@@ -3647,11 +3644,11 @@
     <row r="10" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE("[",B10,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>6</v>
@@ -3855,11 +3852,11 @@
     <row r="11" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE("[",B11,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>6</v>
@@ -4063,11 +4060,11 @@
     <row r="12" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE("[",B12,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>6</v>
@@ -4271,11 +4268,11 @@
     <row r="13" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE("[",B13,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>6</v>
@@ -4479,11 +4476,11 @@
     <row r="14" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE("[",B14,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>6</v>
@@ -4687,11 +4684,11 @@
     <row r="15" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE("[",B15,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>6</v>
@@ -4895,11 +4892,11 @@
     <row r="16" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE("[",B16,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>6</v>
@@ -5103,11 +5100,11 @@
     <row r="17" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE("[",B17,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0205', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0215', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0211', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0201', '0203', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -5311,11 +5308,11 @@
     <row r="18" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE("[",B18,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
@@ -5519,11 +5516,11 @@
     <row r="19" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE("[",B19,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -5727,11 +5724,11 @@
     <row r="20" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C20" t="str">
         <f>CONCATENATE("[",B20,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
@@ -5935,11 +5932,11 @@
     <row r="21" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C21" t="str">
         <f>CONCATENATE("[",B21,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>6</v>
@@ -6143,11 +6140,11 @@
     <row r="22" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C22" t="str">
         <f>CONCATENATE("[",B22,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>6</v>
@@ -6351,11 +6348,11 @@
     <row r="23" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C23" t="str">
         <f>CONCATENATE("[",B23,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>6</v>
@@ -6559,11 +6556,11 @@
     <row r="24" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C24" t="str">
         <f>CONCATENATE("[",B24,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>6</v>
@@ -6767,11 +6764,11 @@
     <row r="25" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C25" t="str">
         <f>CONCATENATE("[",B25,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>6</v>
@@ -6975,11 +6972,11 @@
     <row r="26" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C26" t="str">
         <f>CONCATENATE("[",B26,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>6</v>
@@ -7183,11 +7180,11 @@
     <row r="27" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C27" t="str">
         <f>CONCATENATE("[",B27,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>6</v>
@@ -7391,11 +7388,11 @@
     <row r="28" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C28" t="str">
         <f>CONCATENATE("[",B28,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>6</v>
@@ -7599,11 +7596,11 @@
     <row r="29" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C29" t="str">
         <f>CONCATENATE("[",B29,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>6</v>
@@ -7807,11 +7804,11 @@
     <row r="30" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C30" t="str">
         <f>CONCATENATE("[",B30,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>6</v>
@@ -8015,11 +8012,11 @@
     <row r="31" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C31" t="str">
         <f>CONCATENATE("[",B31,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>6</v>
@@ -8223,11 +8220,11 @@
     <row r="32" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C32" t="str">
         <f>CONCATENATE("[",B32,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>6</v>
@@ -8431,11 +8428,11 @@
     <row r="33" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C33" t="str">
         <f>CONCATENATE("[",B33,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>6</v>
@@ -8639,11 +8636,11 @@
     <row r="34" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C34" t="str">
         <f>CONCATENATE("[",B34,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0202', '0202', '0202', '0202', '0202', '0202', '0208', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>6</v>
@@ -8847,11 +8844,11 @@
     <row r="35" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C35" t="str">
         <f>CONCATENATE("[",B35,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>6</v>
@@ -9055,11 +9052,11 @@
     <row r="36" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C36" t="str">
         <f>CONCATENATE("[",B36,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0207', '0202', '0202', '0208', '0200', '0202', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>6</v>
@@ -9263,11 +9260,11 @@
     <row r="37" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C37" t="str">
         <f>CONCATENATE("[",B37,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0202', '0200', '0200', '0202', '0200', '0210', '0202', '0209', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>6</v>
@@ -9471,11 +9468,11 @@
     <row r="38" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C38" t="str">
         <f>CONCATENATE("[",B38,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0207', '0209', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>6</v>
@@ -9679,11 +9676,11 @@
     <row r="39" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C39" t="str">
         <f>CONCATENATE("[",B39,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0210', '0208', '0200', '0200', '0003', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>6</v>
@@ -9887,11 +9884,11 @@
     <row r="40" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C40" t="str">
         <f>CONCATENATE("[",B40,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0202', '0200', '0200', '0200', '0210', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>6</v>
@@ -10095,11 +10092,11 @@
     <row r="41" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C41" t="str">
         <f>CONCATENATE("[",B41,"],")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0210', '0202', '0202', '0209', '0200', '0200', '0200', '0200', '0210', '0202', '0208', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'],</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>6</v>
@@ -10303,11 +10300,11 @@
     <row r="42" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200'</v>
       </c>
       <c r="C42" t="str">
         <f>CONCATENATE("[",B42,"]")</f>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200]</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0202', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200']</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>6</v>
